--- a/data/meliprueba1.xlsx
+++ b/data/meliprueba1.xlsx
@@ -1051,7 +1051,11 @@
           <t>MLA1168777768</t>
         </is>
       </c>
-      <c r="B52" t="inlineStr"/>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>MLA48876</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -3555,7 +3559,11 @@
           <t>MLA1339853924</t>
         </is>
       </c>
-      <c r="B261" t="inlineStr"/>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>MLA432608</t>
+        </is>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
@@ -3815,7 +3823,11 @@
           <t>MLA1291850699</t>
         </is>
       </c>
-      <c r="B283" t="inlineStr"/>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>MLA432608</t>
+        </is>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
@@ -4123,7 +4135,11 @@
           <t>MLA1291696692</t>
         </is>
       </c>
-      <c r="B309" t="inlineStr"/>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>MLA432608</t>
+        </is>
+      </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
@@ -4419,7 +4435,11 @@
           <t>MLA1115099597</t>
         </is>
       </c>
-      <c r="B334" t="inlineStr"/>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>MLA432608</t>
+        </is>
+      </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
@@ -4559,11 +4579,7 @@
           <t>MLA1349064922</t>
         </is>
       </c>
-      <c r="B346" t="inlineStr">
-        <is>
-          <t>MLA10076</t>
-        </is>
-      </c>
+      <c r="B346" t="inlineStr"/>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
@@ -4955,7 +4971,11 @@
           <t>MLA928294012</t>
         </is>
       </c>
-      <c r="B379" t="inlineStr"/>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>MLA432608</t>
+        </is>
+      </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
@@ -4999,7 +5019,11 @@
           <t>MLA1291850959</t>
         </is>
       </c>
-      <c r="B383" t="inlineStr"/>
+      <c r="B383" t="inlineStr">
+        <is>
+          <t>MLA432608</t>
+        </is>
+      </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
@@ -5127,7 +5151,11 @@
           <t>MLA1349026092</t>
         </is>
       </c>
-      <c r="B394" t="inlineStr"/>
+      <c r="B394" t="inlineStr">
+        <is>
+          <t>MLA10076</t>
+        </is>
+      </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
